--- a/datasets/tss/MatchupTable.xlsx
+++ b/datasets/tss/MatchupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RealTwin\RealTwin tool development\bearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884AA026-AB2C-4F83-B53F-E78D89BCC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B710E25-EFD8-4649-84F9-EE83D4788A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="156">
   <si>
     <t>Network</t>
   </si>
@@ -76,6 +76,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>23.92</t>
+  </si>
+  <si>
     <t>308</t>
   </si>
   <si>
@@ -85,42 +88,138 @@
     <t>right</t>
   </si>
   <si>
+    <t>Shallowford+Gunbarrel_07112023.xls</t>
+  </si>
+  <si>
+    <t>7/11/2023</t>
+  </si>
+  <si>
+    <t>0417) Shallowford Rd &amp; Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>NBR</t>
+  </si>
+  <si>
+    <t>Synchro_signal.csv</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>306</t>
   </si>
   <si>
     <t>thru</t>
   </si>
   <si>
+    <t>NBT</t>
+  </si>
+  <si>
     <t>307</t>
   </si>
   <si>
     <t>left</t>
   </si>
   <si>
+    <t>NBL</t>
+  </si>
+  <si>
     <t>305</t>
   </si>
   <si>
     <t>Uturn</t>
   </si>
   <si>
+    <t>NBU</t>
+  </si>
+  <si>
+    <t>114.04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>328</t>
   </si>
   <si>
+    <t>EBR</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>EBL</t>
+  </si>
+  <si>
+    <t>EBU</t>
+  </si>
+  <si>
+    <t>201.63</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>326</t>
   </si>
   <si>
+    <t>SBR</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>SBL</t>
+  </si>
+  <si>
+    <t>SBU</t>
+  </si>
+  <si>
+    <t>294.04</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>280</t>
   </si>
   <si>
+    <t>WBR</t>
+  </si>
+  <si>
+    <t>WBT</t>
+  </si>
+  <si>
+    <t>WBL</t>
+  </si>
+  <si>
+    <t>WBU</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>24.39</t>
+  </si>
+  <si>
     <t>317</t>
   </si>
   <si>
     <t>284</t>
   </si>
   <si>
+    <t>Shallowford+Lifestyle_07112023.xls</t>
+  </si>
+  <si>
+    <t>0416) Shallowford Rd &amp; Lifestyle Way</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>283</t>
   </si>
   <si>
@@ -130,73 +229,139 @@
     <t>282</t>
   </si>
   <si>
+    <t>113.74</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
+    <t>204.05</t>
+  </si>
+  <si>
     <t>318</t>
   </si>
   <si>
+    <t>294.03</t>
+  </si>
+  <si>
     <t>327</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>25.19</t>
+  </si>
+  <si>
     <t>316</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>315</t>
   </si>
   <si>
     <t>314</t>
   </si>
   <si>
+    <t>113.99</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
+    <t>293.75</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>113.88</t>
+  </si>
+  <si>
     <t>329</t>
   </si>
   <si>
+    <t>193.7</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>50.76</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
     <t>286</t>
   </si>
   <si>
+    <t>Shallowford+I75N_07112023.xls</t>
+  </si>
+  <si>
+    <t>0414) Shallowford Rd &amp; I-75 NB</t>
+  </si>
+  <si>
     <t>287</t>
   </si>
   <si>
     <t>2851</t>
   </si>
   <si>
+    <t>114.39</t>
+  </si>
+  <si>
     <t>288</t>
   </si>
   <si>
+    <t>296.65</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>111.5</t>
+  </si>
+  <si>
     <t>297</t>
   </si>
   <si>
     <t>289</t>
   </si>
   <si>
+    <t>Shallowford+I75S_07112023.xls</t>
+  </si>
+  <si>
+    <t>0413) Shallowford Rd &amp; I-75 SB</t>
+  </si>
+  <si>
+    <t>235.09</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
     <t>290</t>
   </si>
   <si>
-    <t>292</t>
+    <t>291.87</t>
   </si>
   <si>
     <t>285</t>
@@ -205,25 +370,49 @@
     <t>10</t>
   </si>
   <si>
+    <t>25.84</t>
+  </si>
+  <si>
     <t>319</t>
   </si>
   <si>
     <t>302</t>
   </si>
   <si>
+    <t>Shallowford+Napier_07112023.xls</t>
+  </si>
+  <si>
+    <t>0415) Shallowford Rd &amp; Napier Rd / Hamilton Place Blvd</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
+    <t>116.65</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>202.48</t>
+  </si>
+  <si>
     <t>325</t>
   </si>
   <si>
+    <t>294.22</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>11</t>
+    <t>22.95</t>
   </si>
   <si>
     <t>331</t>
@@ -235,15 +424,27 @@
     <t>299</t>
   </si>
   <si>
+    <t>113.22</t>
+  </si>
+  <si>
     <t>293</t>
   </si>
   <si>
-    <t>12</t>
+    <t>291.47</t>
+  </si>
+  <si>
+    <t>23.34</t>
   </si>
   <si>
     <t>309</t>
   </si>
   <si>
+    <t>Shallowford+Amin_07112023.xls</t>
+  </si>
+  <si>
+    <t>0412) Shallowford Rd &amp; Shallowford Village Dr / Amin Dr</t>
+  </si>
+  <si>
     <t>296</t>
   </si>
   <si>
@@ -253,15 +454,27 @@
     <t>294</t>
   </si>
   <si>
+    <t>114.31</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
+    <t>201.4</t>
+  </si>
+  <si>
     <t>324</t>
   </si>
   <si>
+    <t>293.24</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>24.02</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
@@ -271,31 +484,10 @@
     <t>323</t>
   </si>
   <si>
-    <t>Shallowford+Gunbarrel_07112023.xls</t>
-  </si>
-  <si>
-    <t>Shallowford+Lifestyle_07112023.xls</t>
-  </si>
-  <si>
-    <t>Shallowford+I75N_07112023.xls</t>
-  </si>
-  <si>
-    <t>Shallowford+I75S_07112023.xls</t>
-  </si>
-  <si>
-    <t>Shallowford+Napier_07112023.xls</t>
-  </si>
-  <si>
-    <t>Shallowford+Amin_07112023.xls</t>
-  </si>
-  <si>
-    <t>Synchro_signal.csv</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>114.26</t>
+  </si>
+  <si>
+    <t>293.29</t>
   </si>
 </sst>
 </file>
@@ -641,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K120"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,866 +922,1006 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
-        <v>23.92</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="2">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>23.92</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>23.92</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>23.92</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>114.04</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11</v>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>114.04</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>114.04</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11</v>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>114.04</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11</v>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>201.63</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>201.63</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>201.63</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1">
-        <v>201.63</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20</v>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C16" s="1">
-        <v>29</v>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>29</v>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>29</v>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>24.39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1">
-        <v>24.39</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1">
-        <v>24.39</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>24.39</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>113.74</v>
-      </c>
-      <c r="C23" s="1">
-        <v>11</v>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>113.74</v>
-      </c>
-      <c r="C24" s="1">
-        <v>11</v>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>113.74</v>
-      </c>
-      <c r="C25" s="1">
-        <v>11</v>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1">
-        <v>113.74</v>
-      </c>
-      <c r="C26" s="1">
-        <v>11</v>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>204.05</v>
-      </c>
-      <c r="C27" s="1">
-        <v>20</v>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>204.05</v>
-      </c>
-      <c r="C28" s="1">
-        <v>20</v>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>204.05</v>
-      </c>
-      <c r="C29" s="1">
-        <v>20</v>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>204.05</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20</v>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>294.02999999999997</v>
-      </c>
-      <c r="C31" s="1">
-        <v>29</v>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>294.02999999999997</v>
-      </c>
-      <c r="C32" s="1">
-        <v>29</v>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="1">
-        <v>294.02999999999997</v>
-      </c>
-      <c r="C33" s="1">
-        <v>29</v>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1">
-        <v>294.02999999999997</v>
-      </c>
-      <c r="C34" s="1">
-        <v>29</v>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1">
-        <v>25.19</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1598,24 +1930,26 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>25.19</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1628,20 +1962,20 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>25.19</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1654,20 +1988,20 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1">
-        <v>113.99</v>
-      </c>
-      <c r="C38" s="1">
-        <v>11</v>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1680,20 +2014,20 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="1">
-        <v>113.99</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1706,20 +2040,20 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1">
-        <v>113.99</v>
-      </c>
-      <c r="C40" s="1">
-        <v>11</v>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1732,20 +2066,20 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1">
-        <v>293.75</v>
-      </c>
-      <c r="C41" s="1">
-        <v>29</v>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1758,20 +2092,20 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>293.75</v>
-      </c>
-      <c r="C42" s="1">
-        <v>29</v>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1784,20 +2118,20 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>293.75</v>
-      </c>
-      <c r="C43" s="1">
-        <v>29</v>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1810,22 +2144,22 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1">
-        <v>113.88</v>
-      </c>
-      <c r="C44" s="1">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1834,24 +2168,26 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>113.88</v>
-      </c>
-      <c r="C45" s="1">
-        <v>11</v>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1864,20 +2200,20 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>113.88</v>
-      </c>
-      <c r="C46" s="1">
-        <v>11</v>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1890,20 +2226,20 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>193.7</v>
-      </c>
-      <c r="C47" s="1">
-        <v>19</v>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1916,20 +2252,20 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>193.7</v>
-      </c>
-      <c r="C48" s="1">
-        <v>19</v>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1942,20 +2278,20 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>193.7</v>
-      </c>
-      <c r="C49" s="1">
-        <v>19</v>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1968,20 +2304,20 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C50" s="1">
-        <v>29</v>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1994,20 +2330,20 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C51" s="1">
-        <v>29</v>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2020,20 +2356,20 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1">
-        <v>294.04000000000002</v>
-      </c>
-      <c r="C52" s="1">
-        <v>29</v>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2046,896 +2382,1048 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="1">
-        <v>50.76</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="1">
-        <v>50.76</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="1">
-        <v>50.76</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="1">
-        <v>114.39</v>
-      </c>
-      <c r="C56" s="1">
-        <v>11</v>
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="1">
-        <v>114.39</v>
-      </c>
-      <c r="C57" s="1">
-        <v>11</v>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="1">
-        <v>114.39</v>
-      </c>
-      <c r="C58" s="1">
-        <v>11</v>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="1">
-        <v>296.64999999999998</v>
-      </c>
-      <c r="C59" s="1">
-        <v>30</v>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1">
-        <v>296.64999999999998</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="1">
-        <v>296.64999999999998</v>
-      </c>
-      <c r="C61" s="1">
-        <v>30</v>
+      <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="C62" s="1">
-        <v>11</v>
+        <v>103</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="C63" s="1">
-        <v>11</v>
+      <c r="B63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="C64" s="1">
-        <v>11</v>
+      <c r="B64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="1">
-        <v>235.09</v>
-      </c>
-      <c r="C65" s="1">
-        <v>24</v>
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="1">
-        <v>235.09</v>
-      </c>
-      <c r="C66" s="1">
-        <v>24</v>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="1">
-        <v>235.09</v>
-      </c>
-      <c r="C67" s="1">
-        <v>24</v>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="1">
-        <v>291.87</v>
-      </c>
-      <c r="C68" s="1">
-        <v>29</v>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="1">
-        <v>291.87</v>
-      </c>
-      <c r="C69" s="1">
-        <v>29</v>
+      <c r="B69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1">
-        <v>291.87</v>
-      </c>
-      <c r="C70" s="1">
-        <v>29</v>
+      <c r="A70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="1">
-        <v>25.84</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M71" s="1"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="1">
-        <v>25.84</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="1"/>
+      <c r="M72" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="1">
-        <v>25.84</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3</v>
+      <c r="B73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="1">
-        <v>25.84</v>
-      </c>
-      <c r="C74" s="1">
-        <v>3</v>
+      <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="1">
-        <v>116.65</v>
-      </c>
-      <c r="C75" s="1">
-        <v>12</v>
+      <c r="B75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="1"/>
+      <c r="M75" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="1">
-        <v>116.65</v>
-      </c>
-      <c r="C76" s="1">
-        <v>12</v>
+      <c r="B76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="1">
-        <v>116.65</v>
-      </c>
-      <c r="C77" s="1">
-        <v>12</v>
+      <c r="B77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1">
-        <v>116.65</v>
-      </c>
-      <c r="C78" s="1">
-        <v>12</v>
+      <c r="B78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="1"/>
+      <c r="M78" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="1">
-        <v>202.48</v>
-      </c>
-      <c r="C79" s="1">
-        <v>20</v>
+      <c r="B79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="1"/>
+      <c r="M79" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="1">
-        <v>202.48</v>
-      </c>
-      <c r="C80" s="1">
-        <v>20</v>
+      <c r="B80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="1">
-        <v>202.48</v>
-      </c>
-      <c r="C81" s="1">
-        <v>20</v>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="1"/>
+      <c r="M81" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="1">
-        <v>202.48</v>
-      </c>
-      <c r="C82" s="1">
-        <v>20</v>
+      <c r="B82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="1"/>
+      <c r="M82" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="1">
-        <v>294.22000000000003</v>
-      </c>
-      <c r="C83" s="1">
-        <v>29</v>
+      <c r="B83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="1"/>
+      <c r="M83" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="1">
-        <v>294.22000000000003</v>
-      </c>
-      <c r="C84" s="1">
-        <v>29</v>
+      <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="1"/>
+      <c r="M84" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="1">
-        <v>294.22000000000003</v>
-      </c>
-      <c r="C85" s="1">
-        <v>29</v>
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1">
-        <v>294.22000000000003</v>
-      </c>
-      <c r="C86" s="1">
-        <v>29</v>
+      <c r="A86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2944,26 +3432,26 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="2"/>
+      <c r="N86" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="1">
-        <v>22.95</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
+      <c r="A87" s="2"/>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -2976,20 +3464,20 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1">
-        <v>22.95</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2</v>
+      <c r="B88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3002,20 +3490,20 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="1">
-        <v>22.95</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
+      <c r="B89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -3028,20 +3516,20 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="1">
-        <v>113.22</v>
-      </c>
-      <c r="C90" s="1">
-        <v>11</v>
+      <c r="B90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3054,20 +3542,20 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="1">
-        <v>113.22</v>
-      </c>
-      <c r="C91" s="1">
-        <v>11</v>
+      <c r="B91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -3080,20 +3568,20 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="1">
-        <v>113.22</v>
-      </c>
-      <c r="C92" s="1">
-        <v>11</v>
+      <c r="B92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3106,20 +3594,20 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="1">
-        <v>291.47000000000003</v>
-      </c>
-      <c r="C93" s="1">
-        <v>29</v>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -3132,20 +3620,20 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="1">
-        <v>291.47000000000003</v>
-      </c>
-      <c r="C94" s="1">
-        <v>29</v>
+      <c r="B94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -3157,443 +3645,515 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1">
-        <v>291.47000000000003</v>
-      </c>
-      <c r="C95" s="1">
-        <v>29</v>
+      <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2</v>
+      <c r="A96" s="2"/>
+      <c r="B96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M96" s="1"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2</v>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="1"/>
+      <c r="M97" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2</v>
+      <c r="B98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="1"/>
+      <c r="M98" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
+      <c r="B99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="1"/>
+      <c r="M99" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="1">
-        <v>114.31</v>
-      </c>
-      <c r="C100" s="1">
-        <v>11</v>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="1"/>
+      <c r="M100" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="1">
-        <v>114.31</v>
-      </c>
-      <c r="C101" s="1">
-        <v>11</v>
+      <c r="B101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="1"/>
+      <c r="J101" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="1"/>
+      <c r="M101" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="1">
-        <v>114.31</v>
-      </c>
-      <c r="C102" s="1">
-        <v>11</v>
+      <c r="B102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="1"/>
+      <c r="M102" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="1">
-        <v>114.31</v>
-      </c>
-      <c r="C103" s="1">
-        <v>11</v>
+      <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="1"/>
+      <c r="M103" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="1">
-        <v>201.4</v>
-      </c>
-      <c r="C104" s="1">
-        <v>20</v>
+      <c r="B104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="1"/>
+      <c r="M104" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="1">
-        <v>201.4</v>
-      </c>
-      <c r="C105" s="1">
-        <v>20</v>
+      <c r="B105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="1">
-        <v>201.4</v>
-      </c>
-      <c r="C106" s="1">
-        <v>20</v>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="1"/>
+      <c r="M106" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="B107" s="1">
-        <v>201.4</v>
-      </c>
-      <c r="C107" s="1">
-        <v>20</v>
+      <c r="B107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="1"/>
+      <c r="J107" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="1"/>
+      <c r="M107" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="1">
-        <v>293.24</v>
-      </c>
-      <c r="C108" s="1">
-        <v>29</v>
+      <c r="B108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="1"/>
+      <c r="M108" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="1">
-        <v>293.24</v>
-      </c>
-      <c r="C109" s="1">
-        <v>29</v>
+      <c r="B109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="1"/>
+      <c r="M109" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="1">
-        <v>293.24</v>
-      </c>
-      <c r="C110" s="1">
-        <v>29</v>
+      <c r="B110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="J110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="1"/>
+      <c r="M110" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="1">
-        <v>293.24</v>
-      </c>
-      <c r="C111" s="1">
-        <v>29</v>
+      <c r="A111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -3602,26 +4162,26 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="1"/>
-      <c r="N111" s="2"/>
+      <c r="N111" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B112" s="1">
-        <v>24.02</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2</v>
+      <c r="A112" s="2"/>
+      <c r="B112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -3634,20 +4194,20 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="1">
-        <v>24.02</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2</v>
+      <c r="B113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -3660,20 +4220,20 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="1">
-        <v>24.02</v>
-      </c>
-      <c r="C114" s="1">
-        <v>2</v>
+      <c r="B114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -3686,20 +4246,20 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="1">
-        <v>114.26</v>
-      </c>
-      <c r="C115" s="1">
-        <v>11</v>
+      <c r="B115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -3712,20 +4272,20 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="1">
-        <v>114.26</v>
-      </c>
-      <c r="C116" s="1">
-        <v>11</v>
+      <c r="B116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -3738,20 +4298,20 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="B117" s="1">
-        <v>114.26</v>
-      </c>
-      <c r="C117" s="1">
-        <v>11</v>
+      <c r="B117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -3764,20 +4324,20 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="1">
-        <v>293.29000000000002</v>
-      </c>
-      <c r="C118" s="1">
-        <v>29</v>
+      <c r="B118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -3790,20 +4350,20 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="1">
-        <v>293.29000000000002</v>
-      </c>
-      <c r="C119" s="1">
-        <v>29</v>
+      <c r="B119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -3814,98 +4374,72 @@
       <c r="M119" s="1"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="1">
-        <v>293.29000000000002</v>
-      </c>
-      <c r="C120" s="1">
-        <v>29</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="G111:G119"/>
+    <mergeCell ref="A95:A110"/>
+    <mergeCell ref="H62:H69"/>
+    <mergeCell ref="L53:L61"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="N3:N18"/>
-    <mergeCell ref="N62:N70"/>
-    <mergeCell ref="N71:N86"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:L18"/>
     <mergeCell ref="G3:G18"/>
+    <mergeCell ref="A62:A69"/>
     <mergeCell ref="I3:I18"/>
-    <mergeCell ref="L62:L70"/>
-    <mergeCell ref="A71:A86"/>
-    <mergeCell ref="L53:L61"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N87:N95"/>
-    <mergeCell ref="G96:G111"/>
-    <mergeCell ref="A112:A120"/>
-    <mergeCell ref="L19:L34"/>
     <mergeCell ref="G19:G34"/>
     <mergeCell ref="H35:H43"/>
     <mergeCell ref="N35:N43"/>
-    <mergeCell ref="L71:L86"/>
     <mergeCell ref="H44:H52"/>
     <mergeCell ref="H53:H61"/>
-    <mergeCell ref="I96:I111"/>
-    <mergeCell ref="N96:N111"/>
-    <mergeCell ref="L87:L95"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="H112:H120"/>
-    <mergeCell ref="L112:L120"/>
+    <mergeCell ref="H111:H119"/>
+    <mergeCell ref="I35:I43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="G44:G52"/>
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="I44:I52"/>
     <mergeCell ref="A53:A61"/>
-    <mergeCell ref="G71:G86"/>
-    <mergeCell ref="H87:H95"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="A70:A85"/>
+    <mergeCell ref="G70:G85"/>
+    <mergeCell ref="I70:I85"/>
+    <mergeCell ref="I95:I110"/>
+    <mergeCell ref="G86:G94"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="I86:I94"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G62:G70"/>
+    <mergeCell ref="N111:N119"/>
     <mergeCell ref="N19:N34"/>
     <mergeCell ref="G53:G61"/>
-    <mergeCell ref="I62:I70"/>
     <mergeCell ref="I53:I61"/>
     <mergeCell ref="H19:H34"/>
+    <mergeCell ref="H95:H110"/>
+    <mergeCell ref="I111:I119"/>
     <mergeCell ref="I19:I34"/>
     <mergeCell ref="L35:L43"/>
     <mergeCell ref="L44:L52"/>
     <mergeCell ref="H3:H18"/>
     <mergeCell ref="N44:N52"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="L70:L85"/>
+    <mergeCell ref="H86:H94"/>
+    <mergeCell ref="H70:H85"/>
+    <mergeCell ref="N53:N61"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="G95:G110"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="L62:L69"/>
+    <mergeCell ref="N95:N110"/>
     <mergeCell ref="G35:G43"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="I35:I43"/>
-    <mergeCell ref="G44:G52"/>
-    <mergeCell ref="N53:N61"/>
-    <mergeCell ref="I71:I86"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="N112:N120"/>
-    <mergeCell ref="G87:G95"/>
-    <mergeCell ref="K3:K120"/>
-    <mergeCell ref="I87:I95"/>
-    <mergeCell ref="G112:G120"/>
-    <mergeCell ref="H96:H111"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="I112:I120"/>
-    <mergeCell ref="H71:H86"/>
-    <mergeCell ref="L96:L111"/>
-    <mergeCell ref="A96:A111"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="N70:N85"/>
+    <mergeCell ref="L95:L110"/>
+    <mergeCell ref="K3:K119"/>
+    <mergeCell ref="L86:L94"/>
+    <mergeCell ref="N86:N94"/>
+    <mergeCell ref="L19:L34"/>
+    <mergeCell ref="L111:L119"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
